--- a/03_Codebase/res/experiments_config/experiments.xlsx
+++ b/03_Codebase/res/experiments_config/experiments.xlsx
@@ -16,7 +16,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
+    <numFmt numFmtId="165" formatCode="YYYY-MM-DD HH:MM:SS"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -55,11 +58,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -425,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H13"/>
+  <dimension ref="A1:M19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,475 +440,998 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>bias_id</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
           <t>bias</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>experiment</t>
-        </is>
-      </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
+          <t>experiment_type</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
           <t>content</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>variables</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>model_id</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>model</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>local</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>temperature</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>top_p</t>
         </is>
       </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>experiment_id</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>total_content</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>updated_at</t>
+        </is>
+      </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>category_size_bias</t>
-        </is>
+      <c r="A2" t="n">
+        <v>10</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>category_size_bias</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
           <t>standard</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>Test</t>
-        </is>
-      </c>
       <c r="D2" t="inlineStr">
         <is>
+          <t>Let's test this and whether it is different to that.</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
           <t>{"this": 12, "that": 22}</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="n">
+        <v>10</v>
+      </c>
+      <c r="G2" t="inlineStr">
         <is>
           <t>gpt-3.5-turbo</t>
         </is>
       </c>
-      <c r="F2" t="b">
+      <c r="H2" t="b">
         <v>0</v>
       </c>
-      <c r="G2" t="n">
-        <v>1</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0.7</v>
+      <c r="I2" t="n">
+        <v>1</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="K2" t="n">
+        <v>1010</v>
+      </c>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>Let's test 12 and whether it is different to 22.</t>
+        </is>
+      </c>
+      <c r="M2" s="2" t="n">
+        <v>45475.70830358651</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>category_size_bias</t>
-        </is>
+      <c r="A3" t="n">
+        <v>10</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
+          <t>category_size_bias</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
           <t>standard</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>Test</t>
-        </is>
-      </c>
       <c r="D3" t="inlineStr">
         <is>
+          <t>Let's test this and whether it is different to that.</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
           <t>{"this": 12, "that": 22}</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F3" t="n">
+        <v>20</v>
+      </c>
+      <c r="G3" t="inlineStr">
         <is>
           <t>gpt-4</t>
         </is>
       </c>
-      <c r="F3" t="b">
+      <c r="H3" t="b">
         <v>0</v>
       </c>
-      <c r="G3" t="n">
-        <v>1</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0.7</v>
+      <c r="I3" t="n">
+        <v>1</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="K3" t="n">
+        <v>1020</v>
+      </c>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>Let's test 12 and whether it is different to 22.</t>
+        </is>
+      </c>
+      <c r="M3" s="2" t="n">
+        <v>45475.70830358651</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>category_size_bias</t>
-        </is>
+      <c r="A4" t="n">
+        <v>10</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
+          <t>category_size_bias</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
           <t>standard</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Test</t>
-        </is>
-      </c>
       <c r="D4" t="inlineStr">
         <is>
+          <t>Let's test this and whether it is different to that.</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
           <t>{"this": 12, "that": 22}</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="F4" t="n">
+        <v>30</v>
+      </c>
+      <c r="G4" t="inlineStr">
         <is>
           <t>gpt-4o</t>
         </is>
       </c>
-      <c r="F4" t="b">
+      <c r="H4" t="b">
         <v>0</v>
       </c>
-      <c r="G4" t="n">
-        <v>1</v>
-      </c>
-      <c r="H4" t="n">
-        <v>0.7</v>
+      <c r="I4" t="n">
+        <v>1</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="K4" t="n">
+        <v>1030</v>
+      </c>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>Let's test 12 and whether it is different to 22.</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="n">
+        <v>45475.70830358651</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>category_size_bias</t>
-        </is>
+      <c r="A5" t="n">
+        <v>10</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>category_size_bias</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
           <t>standard</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Test</t>
-        </is>
-      </c>
       <c r="D5" t="inlineStr">
         <is>
+          <t>Let's test this and whether it is different to that.</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
           <t>{"this": 12, "that": 22}</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="F5" t="n">
+        <v>40</v>
+      </c>
+      <c r="G5" t="inlineStr">
         <is>
           <t>llama2</t>
         </is>
       </c>
-      <c r="F5" t="b">
-        <v>1</v>
-      </c>
-      <c r="G5" t="n">
-        <v>1</v>
-      </c>
-      <c r="H5" t="n">
-        <v>0.7</v>
+      <c r="H5" t="b">
+        <v>1</v>
+      </c>
+      <c r="I5" t="n">
+        <v>1</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="K5" t="n">
+        <v>1040</v>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>Let's test 12 and whether it is different to 22.</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="n">
+        <v>45475.70830358651</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>category_size_bias</t>
-        </is>
+      <c r="A6" t="n">
+        <v>10</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>category_size_bias</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
           <t>standard</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Test</t>
-        </is>
-      </c>
       <c r="D6" t="inlineStr">
         <is>
+          <t>Let's test this and whether it is different to that.</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
           <t>{"this": 12, "that": 22}</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="F6" t="n">
+        <v>50</v>
+      </c>
+      <c r="G6" t="inlineStr">
         <is>
           <t>llama3</t>
         </is>
       </c>
-      <c r="F6" t="b">
-        <v>1</v>
-      </c>
-      <c r="G6" t="n">
-        <v>1</v>
-      </c>
-      <c r="H6" t="n">
-        <v>0.7</v>
+      <c r="H6" t="b">
+        <v>1</v>
+      </c>
+      <c r="I6" t="n">
+        <v>1</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="K6" t="n">
+        <v>1050</v>
+      </c>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>Let's test 12 and whether it is different to 22.</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="n">
+        <v>45475.70830358651</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>category_size_bias</t>
-        </is>
+      <c r="A7" t="n">
+        <v>10</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>category_size_bias</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
           <t>standard</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>Test</t>
-        </is>
-      </c>
       <c r="D7" t="inlineStr">
         <is>
+          <t>Let's test this and whether it is different to that.</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
           <t>{"this": 12, "that": 22}</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="F7" t="n">
+        <v>60</v>
+      </c>
+      <c r="G7" t="inlineStr">
         <is>
           <t>gemma2</t>
         </is>
       </c>
-      <c r="F7" t="b">
-        <v>1</v>
-      </c>
-      <c r="G7" t="n">
-        <v>1</v>
-      </c>
-      <c r="H7" t="n">
-        <v>0.7</v>
+      <c r="H7" t="b">
+        <v>1</v>
+      </c>
+      <c r="I7" t="n">
+        <v>1</v>
+      </c>
+      <c r="J7" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="K7" t="n">
+        <v>1060</v>
+      </c>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>Let's test 12 and whether it is different to 22.</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="n">
+        <v>45475.70830358651</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>category_size_bias</t>
-        </is>
+      <c r="A8" t="n">
+        <v>11</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>category_size_bias</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
           <t>odd_numbers</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>Test2</t>
-        </is>
-      </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>{"this": 12, "that": 22}</t>
+          <t>Let's test this and whether it is different to that.</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
+          <t>{"this": 841758, "that": 1341}</t>
+        </is>
+      </c>
+      <c r="F8" t="n">
+        <v>10</v>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
           <t>gpt-3.5-turbo</t>
         </is>
       </c>
-      <c r="F8" t="b">
+      <c r="H8" t="b">
         <v>0</v>
       </c>
-      <c r="G8" t="n">
-        <v>1</v>
-      </c>
-      <c r="H8" t="n">
-        <v>0.7</v>
+      <c r="I8" t="n">
+        <v>1</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="K8" t="n">
+        <v>1110</v>
+      </c>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>Let's test 841758 and whether it is different to 1341.</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="n">
+        <v>45475.70830358651</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>category_size_bias</t>
-        </is>
+      <c r="A9" t="n">
+        <v>11</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
+          <t>category_size_bias</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
           <t>odd_numbers</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>Test2</t>
-        </is>
-      </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>{"this": 12, "that": 22}</t>
+          <t>Let's test this and whether it is different to that.</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
+          <t>{"this": 841758, "that": 1341}</t>
+        </is>
+      </c>
+      <c r="F9" t="n">
+        <v>20</v>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
           <t>gpt-4</t>
         </is>
       </c>
-      <c r="F9" t="b">
+      <c r="H9" t="b">
         <v>0</v>
       </c>
-      <c r="G9" t="n">
-        <v>1</v>
-      </c>
-      <c r="H9" t="n">
-        <v>0.7</v>
+      <c r="I9" t="n">
+        <v>1</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="K9" t="n">
+        <v>1120</v>
+      </c>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>Let's test 841758 and whether it is different to 1341.</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="n">
+        <v>45475.70830358651</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>category_size_bias</t>
-        </is>
+      <c r="A10" t="n">
+        <v>11</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
+          <t>category_size_bias</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
           <t>odd_numbers</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>Test2</t>
-        </is>
-      </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>{"this": 12, "that": 22}</t>
+          <t>Let's test this and whether it is different to that.</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
+          <t>{"this": 841758, "that": 1341}</t>
+        </is>
+      </c>
+      <c r="F10" t="n">
+        <v>30</v>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
           <t>gpt-4o</t>
         </is>
       </c>
-      <c r="F10" t="b">
+      <c r="H10" t="b">
         <v>0</v>
       </c>
-      <c r="G10" t="n">
-        <v>1</v>
-      </c>
-      <c r="H10" t="n">
-        <v>0.7</v>
+      <c r="I10" t="n">
+        <v>1</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="K10" t="n">
+        <v>1130</v>
+      </c>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>Let's test 841758 and whether it is different to 1341.</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="n">
+        <v>45475.70830358651</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>category_size_bias</t>
-        </is>
+      <c r="A11" t="n">
+        <v>11</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
+          <t>category_size_bias</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
           <t>odd_numbers</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>Test2</t>
-        </is>
-      </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>{"this": 12, "that": 22}</t>
+          <t>Let's test this and whether it is different to that.</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
+          <t>{"this": 841758, "that": 1341}</t>
+        </is>
+      </c>
+      <c r="F11" t="n">
+        <v>40</v>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
           <t>llama2</t>
         </is>
       </c>
-      <c r="F11" t="b">
-        <v>1</v>
-      </c>
-      <c r="G11" t="n">
-        <v>1</v>
-      </c>
-      <c r="H11" t="n">
-        <v>0.7</v>
+      <c r="H11" t="b">
+        <v>1</v>
+      </c>
+      <c r="I11" t="n">
+        <v>1</v>
+      </c>
+      <c r="J11" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="K11" t="n">
+        <v>1140</v>
+      </c>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>Let's test 841758 and whether it is different to 1341.</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="n">
+        <v>45475.70830358651</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>category_size_bias</t>
-        </is>
+      <c r="A12" t="n">
+        <v>11</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
+          <t>category_size_bias</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
           <t>odd_numbers</t>
         </is>
       </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>Test2</t>
-        </is>
-      </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>{"this": 12, "that": 22}</t>
+          <t>Let's test this and whether it is different to that.</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
+          <t>{"this": 841758, "that": 1341}</t>
+        </is>
+      </c>
+      <c r="F12" t="n">
+        <v>50</v>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
           <t>llama3</t>
         </is>
       </c>
-      <c r="F12" t="b">
-        <v>1</v>
-      </c>
-      <c r="G12" t="n">
-        <v>1</v>
-      </c>
-      <c r="H12" t="n">
-        <v>0.7</v>
+      <c r="H12" t="b">
+        <v>1</v>
+      </c>
+      <c r="I12" t="n">
+        <v>1</v>
+      </c>
+      <c r="J12" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="K12" t="n">
+        <v>1150</v>
+      </c>
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>Let's test 841758 and whether it is different to 1341.</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="n">
+        <v>45475.70830358651</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>category_size_bias</t>
-        </is>
+      <c r="A13" t="n">
+        <v>11</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
+          <t>category_size_bias</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
           <t>odd_numbers</t>
         </is>
       </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>Test2</t>
-        </is>
-      </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>{"this": 12, "that": 22}</t>
+          <t>Let's test this and whether it is different to that.</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
+          <t>{"this": 841758, "that": 1341}</t>
+        </is>
+      </c>
+      <c r="F13" t="n">
+        <v>60</v>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
           <t>gemma2</t>
         </is>
       </c>
-      <c r="F13" t="b">
-        <v>1</v>
-      </c>
-      <c r="G13" t="n">
-        <v>1</v>
-      </c>
-      <c r="H13" t="n">
-        <v>0.7</v>
+      <c r="H13" t="b">
+        <v>1</v>
+      </c>
+      <c r="I13" t="n">
+        <v>1</v>
+      </c>
+      <c r="J13" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="K13" t="n">
+        <v>1160</v>
+      </c>
+      <c r="L13" t="inlineStr">
+        <is>
+          <t>Let's test 841758 and whether it is different to 1341.</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="n">
+        <v>45475.70830358651</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>category_size_bias</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>test</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>Let's test this and whether it is different to that.</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr"/>
+      <c r="F14" t="n">
+        <v>10</v>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>gpt-3.5-turbo</t>
+        </is>
+      </c>
+      <c r="H14" t="b">
+        <v>0</v>
+      </c>
+      <c r="I14" t="n">
+        <v>1</v>
+      </c>
+      <c r="J14" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="K14" t="n">
+        <v>1210</v>
+      </c>
+      <c r="L14" t="inlineStr">
+        <is>
+          <t>Let's test this and whether it is different to that.</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="n">
+        <v>45475.70830358651</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>12</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>category_size_bias</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>test</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>Let's test this and whether it is different to that.</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr"/>
+      <c r="F15" t="n">
+        <v>20</v>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>gpt-4</t>
+        </is>
+      </c>
+      <c r="H15" t="b">
+        <v>0</v>
+      </c>
+      <c r="I15" t="n">
+        <v>1</v>
+      </c>
+      <c r="J15" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="K15" t="n">
+        <v>1220</v>
+      </c>
+      <c r="L15" t="inlineStr">
+        <is>
+          <t>Let's test this and whether it is different to that.</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="n">
+        <v>45475.70830358651</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>12</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>category_size_bias</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>test</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>Let's test this and whether it is different to that.</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr"/>
+      <c r="F16" t="n">
+        <v>30</v>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>gpt-4o</t>
+        </is>
+      </c>
+      <c r="H16" t="b">
+        <v>0</v>
+      </c>
+      <c r="I16" t="n">
+        <v>1</v>
+      </c>
+      <c r="J16" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="K16" t="n">
+        <v>1230</v>
+      </c>
+      <c r="L16" t="inlineStr">
+        <is>
+          <t>Let's test this and whether it is different to that.</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="n">
+        <v>45475.70830358651</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>12</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>category_size_bias</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>test</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>Let's test this and whether it is different to that.</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr"/>
+      <c r="F17" t="n">
+        <v>40</v>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>llama2</t>
+        </is>
+      </c>
+      <c r="H17" t="b">
+        <v>1</v>
+      </c>
+      <c r="I17" t="n">
+        <v>1</v>
+      </c>
+      <c r="J17" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="K17" t="n">
+        <v>1240</v>
+      </c>
+      <c r="L17" t="inlineStr">
+        <is>
+          <t>Let's test this and whether it is different to that.</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="n">
+        <v>45475.70830358651</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>12</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>category_size_bias</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>test</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>Let's test this and whether it is different to that.</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr"/>
+      <c r="F18" t="n">
+        <v>50</v>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>llama3</t>
+        </is>
+      </c>
+      <c r="H18" t="b">
+        <v>1</v>
+      </c>
+      <c r="I18" t="n">
+        <v>1</v>
+      </c>
+      <c r="J18" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="K18" t="n">
+        <v>1250</v>
+      </c>
+      <c r="L18" t="inlineStr">
+        <is>
+          <t>Let's test this and whether it is different to that.</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="n">
+        <v>45475.70830358651</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>12</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>category_size_bias</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>test</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>Let's test this and whether it is different to that.</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr"/>
+      <c r="F19" t="n">
+        <v>60</v>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>gemma2</t>
+        </is>
+      </c>
+      <c r="H19" t="b">
+        <v>1</v>
+      </c>
+      <c r="I19" t="n">
+        <v>1</v>
+      </c>
+      <c r="J19" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="K19" t="n">
+        <v>1260</v>
+      </c>
+      <c r="L19" t="inlineStr">
+        <is>
+          <t>Let's test this and whether it is different to that.</t>
+        </is>
+      </c>
+      <c r="M19" s="2" t="n">
+        <v>45475.70830358651</v>
       </c>
     </row>
   </sheetData>

--- a/03_Codebase/res/experiments_config/experiments.xlsx
+++ b/03_Codebase/res/experiments_config/experiments.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M19"/>
+  <dimension ref="A1:L19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -440,65 +440,60 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>experiment_id</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
           <t>bias_id</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>model_id</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>bias</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>experiment_type</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>content</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>variables</t>
-        </is>
-      </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>model_id</t>
+          <t>model</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>model</t>
+          <t>local</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>local</t>
+          <t>temperature</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>temperature</t>
+          <t>top_p</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>top_p</t>
+          <t>total_content</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>experiment_id</t>
+          <t>target_choice</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>total_content</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>updated_at</t>
         </is>
@@ -506,932 +501,866 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
+        <v>1010</v>
+      </c>
+      <c r="B2" t="n">
         <v>10</v>
       </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>category_size_bias</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
+      <c r="C2" t="n">
+        <v>10</v>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>category_size_bias</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
         <is>
           <t>standard</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>Let's test this and whether it is different to that.</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>{"this": 12, "that": 22}</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
-        <v>10</v>
-      </c>
-      <c r="G2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>gpt-3.5-turbo</t>
         </is>
       </c>
-      <c r="H2" t="b">
+      <c r="G2" t="b">
         <v>0</v>
       </c>
+      <c r="H2" t="n">
+        <v>1</v>
+      </c>
       <c r="I2" t="n">
-        <v>1</v>
-      </c>
-      <c r="J2" t="n">
-        <v>0.7</v>
-      </c>
-      <c r="K2" t="n">
-        <v>1010</v>
-      </c>
-      <c r="L2" t="inlineStr">
+        <v>0.7</v>
+      </c>
+      <c r="J2" t="inlineStr">
         <is>
           <t>Let's test 12 and whether it is different to 22.</t>
         </is>
       </c>
-      <c r="M2" s="2" t="n">
-        <v>45475.70830358651</v>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="L2" s="2" t="n">
+        <v>45490.86229397799</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
+        <v>1020</v>
+      </c>
+      <c r="B3" t="n">
         <v>10</v>
       </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>category_size_bias</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
+      <c r="C3" t="n">
+        <v>20</v>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>category_size_bias</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
         <is>
           <t>standard</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>Let's test this and whether it is different to that.</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>{"this": 12, "that": 22}</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
-        <v>20</v>
-      </c>
-      <c r="G3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>gpt-4</t>
         </is>
       </c>
-      <c r="H3" t="b">
+      <c r="G3" t="b">
         <v>0</v>
       </c>
+      <c r="H3" t="n">
+        <v>1</v>
+      </c>
       <c r="I3" t="n">
-        <v>1</v>
-      </c>
-      <c r="J3" t="n">
-        <v>0.7</v>
-      </c>
-      <c r="K3" t="n">
-        <v>1020</v>
-      </c>
-      <c r="L3" t="inlineStr">
+        <v>0.7</v>
+      </c>
+      <c r="J3" t="inlineStr">
         <is>
           <t>Let's test 12 and whether it is different to 22.</t>
         </is>
       </c>
-      <c r="M3" s="2" t="n">
-        <v>45475.70830358651</v>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="L3" s="2" t="n">
+        <v>45490.86229397799</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
+        <v>1030</v>
+      </c>
+      <c r="B4" t="n">
         <v>10</v>
       </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>category_size_bias</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
+      <c r="C4" t="n">
+        <v>30</v>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>category_size_bias</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
         <is>
           <t>standard</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>Let's test this and whether it is different to that.</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>{"this": 12, "that": 22}</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>30</v>
-      </c>
-      <c r="G4" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>gpt-4o</t>
         </is>
       </c>
-      <c r="H4" t="b">
+      <c r="G4" t="b">
         <v>0</v>
       </c>
+      <c r="H4" t="n">
+        <v>1</v>
+      </c>
       <c r="I4" t="n">
-        <v>1</v>
-      </c>
-      <c r="J4" t="n">
-        <v>0.7</v>
-      </c>
-      <c r="K4" t="n">
-        <v>1030</v>
-      </c>
-      <c r="L4" t="inlineStr">
+        <v>0.7</v>
+      </c>
+      <c r="J4" t="inlineStr">
         <is>
           <t>Let's test 12 and whether it is different to 22.</t>
         </is>
       </c>
-      <c r="M4" s="2" t="n">
-        <v>45475.70830358651</v>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="n">
+        <v>45490.86229397799</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
+        <v>1040</v>
+      </c>
+      <c r="B5" t="n">
         <v>10</v>
       </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>category_size_bias</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
+      <c r="C5" t="n">
+        <v>40</v>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>category_size_bias</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
         <is>
           <t>standard</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>Let's test this and whether it is different to that.</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>{"this": 12, "that": 22}</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
-        <v>40</v>
-      </c>
-      <c r="G5" t="inlineStr">
+      <c r="F5" t="inlineStr">
         <is>
           <t>llama2</t>
         </is>
       </c>
-      <c r="H5" t="b">
+      <c r="G5" t="b">
+        <v>1</v>
+      </c>
+      <c r="H5" t="n">
         <v>1</v>
       </c>
       <c r="I5" t="n">
-        <v>1</v>
-      </c>
-      <c r="J5" t="n">
-        <v>0.7</v>
-      </c>
-      <c r="K5" t="n">
-        <v>1040</v>
-      </c>
-      <c r="L5" t="inlineStr">
+        <v>0.7</v>
+      </c>
+      <c r="J5" t="inlineStr">
         <is>
           <t>Let's test 12 and whether it is different to 22.</t>
         </is>
       </c>
-      <c r="M5" s="2" t="n">
-        <v>45475.70830358651</v>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="n">
+        <v>45490.86229397799</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
+        <v>1050</v>
+      </c>
+      <c r="B6" t="n">
         <v>10</v>
       </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>category_size_bias</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
+      <c r="C6" t="n">
+        <v>50</v>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>category_size_bias</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
         <is>
           <t>standard</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>Let's test this and whether it is different to that.</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>{"this": 12, "that": 22}</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
-        <v>50</v>
-      </c>
-      <c r="G6" t="inlineStr">
+      <c r="F6" t="inlineStr">
         <is>
           <t>llama3</t>
         </is>
       </c>
-      <c r="H6" t="b">
+      <c r="G6" t="b">
+        <v>1</v>
+      </c>
+      <c r="H6" t="n">
         <v>1</v>
       </c>
       <c r="I6" t="n">
-        <v>1</v>
-      </c>
-      <c r="J6" t="n">
-        <v>0.7</v>
-      </c>
-      <c r="K6" t="n">
-        <v>1050</v>
-      </c>
-      <c r="L6" t="inlineStr">
+        <v>0.7</v>
+      </c>
+      <c r="J6" t="inlineStr">
         <is>
           <t>Let's test 12 and whether it is different to 22.</t>
         </is>
       </c>
-      <c r="M6" s="2" t="n">
-        <v>45475.70830358651</v>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="n">
+        <v>45490.86229397799</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
+        <v>1060</v>
+      </c>
+      <c r="B7" t="n">
         <v>10</v>
       </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>category_size_bias</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
+      <c r="C7" t="n">
+        <v>60</v>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>category_size_bias</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
         <is>
           <t>standard</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>Let's test this and whether it is different to that.</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>{"this": 12, "that": 22}</t>
-        </is>
-      </c>
-      <c r="F7" t="n">
-        <v>60</v>
-      </c>
-      <c r="G7" t="inlineStr">
+      <c r="F7" t="inlineStr">
         <is>
           <t>gemma2</t>
         </is>
       </c>
-      <c r="H7" t="b">
+      <c r="G7" t="b">
+        <v>1</v>
+      </c>
+      <c r="H7" t="n">
         <v>1</v>
       </c>
       <c r="I7" t="n">
-        <v>1</v>
-      </c>
-      <c r="J7" t="n">
-        <v>0.7</v>
-      </c>
-      <c r="K7" t="n">
-        <v>1060</v>
-      </c>
-      <c r="L7" t="inlineStr">
+        <v>0.7</v>
+      </c>
+      <c r="J7" t="inlineStr">
         <is>
           <t>Let's test 12 and whether it is different to 22.</t>
         </is>
       </c>
-      <c r="M7" s="2" t="n">
-        <v>45475.70830358651</v>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="n">
+        <v>45490.86229397799</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
+        <v>1110</v>
+      </c>
+      <c r="B8" t="n">
         <v>11</v>
       </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>category_size_bias</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
+      <c r="C8" t="n">
+        <v>10</v>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>category_size_bias</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
         <is>
           <t>odd_numbers</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>Let's test this and whether it is different to that.</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>{"this": 841758, "that": 1341}</t>
-        </is>
-      </c>
-      <c r="F8" t="n">
-        <v>10</v>
-      </c>
-      <c r="G8" t="inlineStr">
+      <c r="F8" t="inlineStr">
         <is>
           <t>gpt-3.5-turbo</t>
         </is>
       </c>
-      <c r="H8" t="b">
+      <c r="G8" t="b">
         <v>0</v>
       </c>
+      <c r="H8" t="n">
+        <v>1</v>
+      </c>
       <c r="I8" t="n">
-        <v>1</v>
-      </c>
-      <c r="J8" t="n">
-        <v>0.7</v>
-      </c>
-      <c r="K8" t="n">
-        <v>1110</v>
-      </c>
-      <c r="L8" t="inlineStr">
+        <v>0.7</v>
+      </c>
+      <c r="J8" t="inlineStr">
         <is>
           <t>Let's test 841758 and whether it is different to 1341.</t>
         </is>
       </c>
-      <c r="M8" s="2" t="n">
-        <v>45475.70830358651</v>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="n">
+        <v>45490.86229397799</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
+        <v>1120</v>
+      </c>
+      <c r="B9" t="n">
         <v>11</v>
       </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>category_size_bias</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
+      <c r="C9" t="n">
+        <v>20</v>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>category_size_bias</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
         <is>
           <t>odd_numbers</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>Let's test this and whether it is different to that.</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>{"this": 841758, "that": 1341}</t>
-        </is>
-      </c>
-      <c r="F9" t="n">
-        <v>20</v>
-      </c>
-      <c r="G9" t="inlineStr">
+      <c r="F9" t="inlineStr">
         <is>
           <t>gpt-4</t>
         </is>
       </c>
-      <c r="H9" t="b">
+      <c r="G9" t="b">
         <v>0</v>
       </c>
+      <c r="H9" t="n">
+        <v>1</v>
+      </c>
       <c r="I9" t="n">
-        <v>1</v>
-      </c>
-      <c r="J9" t="n">
-        <v>0.7</v>
-      </c>
-      <c r="K9" t="n">
-        <v>1120</v>
-      </c>
-      <c r="L9" t="inlineStr">
+        <v>0.7</v>
+      </c>
+      <c r="J9" t="inlineStr">
         <is>
           <t>Let's test 841758 and whether it is different to 1341.</t>
         </is>
       </c>
-      <c r="M9" s="2" t="n">
-        <v>45475.70830358651</v>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="n">
+        <v>45490.86229397799</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
+        <v>1130</v>
+      </c>
+      <c r="B10" t="n">
         <v>11</v>
       </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>category_size_bias</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
+      <c r="C10" t="n">
+        <v>30</v>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>category_size_bias</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
         <is>
           <t>odd_numbers</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>Let's test this and whether it is different to that.</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>{"this": 841758, "that": 1341}</t>
-        </is>
-      </c>
-      <c r="F10" t="n">
-        <v>30</v>
-      </c>
-      <c r="G10" t="inlineStr">
+      <c r="F10" t="inlineStr">
         <is>
           <t>gpt-4o</t>
         </is>
       </c>
-      <c r="H10" t="b">
+      <c r="G10" t="b">
         <v>0</v>
       </c>
+      <c r="H10" t="n">
+        <v>1</v>
+      </c>
       <c r="I10" t="n">
-        <v>1</v>
-      </c>
-      <c r="J10" t="n">
-        <v>0.7</v>
-      </c>
-      <c r="K10" t="n">
-        <v>1130</v>
-      </c>
-      <c r="L10" t="inlineStr">
+        <v>0.7</v>
+      </c>
+      <c r="J10" t="inlineStr">
         <is>
           <t>Let's test 841758 and whether it is different to 1341.</t>
         </is>
       </c>
-      <c r="M10" s="2" t="n">
-        <v>45475.70830358651</v>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="n">
+        <v>45490.86229397799</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
+        <v>1140</v>
+      </c>
+      <c r="B11" t="n">
         <v>11</v>
       </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>category_size_bias</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
+      <c r="C11" t="n">
+        <v>40</v>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>category_size_bias</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
         <is>
           <t>odd_numbers</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>Let's test this and whether it is different to that.</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>{"this": 841758, "that": 1341}</t>
-        </is>
-      </c>
-      <c r="F11" t="n">
-        <v>40</v>
-      </c>
-      <c r="G11" t="inlineStr">
+      <c r="F11" t="inlineStr">
         <is>
           <t>llama2</t>
         </is>
       </c>
-      <c r="H11" t="b">
+      <c r="G11" t="b">
+        <v>1</v>
+      </c>
+      <c r="H11" t="n">
         <v>1</v>
       </c>
       <c r="I11" t="n">
-        <v>1</v>
-      </c>
-      <c r="J11" t="n">
-        <v>0.7</v>
-      </c>
-      <c r="K11" t="n">
-        <v>1140</v>
-      </c>
-      <c r="L11" t="inlineStr">
+        <v>0.7</v>
+      </c>
+      <c r="J11" t="inlineStr">
         <is>
           <t>Let's test 841758 and whether it is different to 1341.</t>
         </is>
       </c>
-      <c r="M11" s="2" t="n">
-        <v>45475.70830358651</v>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="n">
+        <v>45490.86229397799</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
+        <v>1150</v>
+      </c>
+      <c r="B12" t="n">
         <v>11</v>
       </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>category_size_bias</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
+      <c r="C12" t="n">
+        <v>50</v>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>category_size_bias</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
         <is>
           <t>odd_numbers</t>
         </is>
       </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>Let's test this and whether it is different to that.</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>{"this": 841758, "that": 1341}</t>
-        </is>
-      </c>
-      <c r="F12" t="n">
-        <v>50</v>
-      </c>
-      <c r="G12" t="inlineStr">
+      <c r="F12" t="inlineStr">
         <is>
           <t>llama3</t>
         </is>
       </c>
-      <c r="H12" t="b">
+      <c r="G12" t="b">
+        <v>1</v>
+      </c>
+      <c r="H12" t="n">
         <v>1</v>
       </c>
       <c r="I12" t="n">
-        <v>1</v>
-      </c>
-      <c r="J12" t="n">
-        <v>0.7</v>
-      </c>
-      <c r="K12" t="n">
-        <v>1150</v>
-      </c>
-      <c r="L12" t="inlineStr">
+        <v>0.7</v>
+      </c>
+      <c r="J12" t="inlineStr">
         <is>
           <t>Let's test 841758 and whether it is different to 1341.</t>
         </is>
       </c>
-      <c r="M12" s="2" t="n">
-        <v>45475.70830358651</v>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="n">
+        <v>45490.86229397799</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
+        <v>1160</v>
+      </c>
+      <c r="B13" t="n">
         <v>11</v>
       </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>category_size_bias</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
+      <c r="C13" t="n">
+        <v>60</v>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>category_size_bias</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
         <is>
           <t>odd_numbers</t>
         </is>
       </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>Let's test this and whether it is different to that.</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>{"this": 841758, "that": 1341}</t>
-        </is>
-      </c>
-      <c r="F13" t="n">
-        <v>60</v>
-      </c>
-      <c r="G13" t="inlineStr">
+      <c r="F13" t="inlineStr">
         <is>
           <t>gemma2</t>
         </is>
       </c>
-      <c r="H13" t="b">
+      <c r="G13" t="b">
+        <v>1</v>
+      </c>
+      <c r="H13" t="n">
         <v>1</v>
       </c>
       <c r="I13" t="n">
-        <v>1</v>
-      </c>
-      <c r="J13" t="n">
-        <v>0.7</v>
-      </c>
-      <c r="K13" t="n">
-        <v>1160</v>
-      </c>
-      <c r="L13" t="inlineStr">
+        <v>0.7</v>
+      </c>
+      <c r="J13" t="inlineStr">
         <is>
           <t>Let's test 841758 and whether it is different to 1341.</t>
         </is>
       </c>
-      <c r="M13" s="2" t="n">
-        <v>45475.70830358651</v>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="n">
+        <v>45490.86229397799</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
+        <v>1210</v>
+      </c>
+      <c r="B14" t="n">
         <v>12</v>
       </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>category_size_bias</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
+      <c r="C14" t="n">
+        <v>10</v>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>category_size_bias</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
         <is>
           <t>test</t>
         </is>
       </c>
-      <c r="D14" t="inlineStr">
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>gpt-3.5-turbo</t>
+        </is>
+      </c>
+      <c r="G14" t="b">
+        <v>0</v>
+      </c>
+      <c r="H14" t="n">
+        <v>1</v>
+      </c>
+      <c r="I14" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="J14" t="inlineStr">
         <is>
           <t>Let's test this and whether it is different to that.</t>
         </is>
       </c>
-      <c r="E14" t="inlineStr"/>
-      <c r="F14" t="n">
-        <v>10</v>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>gpt-3.5-turbo</t>
-        </is>
-      </c>
-      <c r="H14" t="b">
-        <v>0</v>
-      </c>
-      <c r="I14" t="n">
-        <v>1</v>
-      </c>
-      <c r="J14" t="n">
-        <v>0.7</v>
-      </c>
-      <c r="K14" t="n">
-        <v>1210</v>
-      </c>
-      <c r="L14" t="inlineStr">
-        <is>
-          <t>Let's test this and whether it is different to that.</t>
-        </is>
-      </c>
-      <c r="M14" s="2" t="n">
-        <v>45475.70830358651</v>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="n">
+        <v>45490.86229397799</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
+        <v>1220</v>
+      </c>
+      <c r="B15" t="n">
         <v>12</v>
       </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>category_size_bias</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
+      <c r="C15" t="n">
+        <v>20</v>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>category_size_bias</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
         <is>
           <t>test</t>
         </is>
       </c>
-      <c r="D15" t="inlineStr">
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>gpt-4</t>
+        </is>
+      </c>
+      <c r="G15" t="b">
+        <v>0</v>
+      </c>
+      <c r="H15" t="n">
+        <v>1</v>
+      </c>
+      <c r="I15" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="J15" t="inlineStr">
         <is>
           <t>Let's test this and whether it is different to that.</t>
         </is>
       </c>
-      <c r="E15" t="inlineStr"/>
-      <c r="F15" t="n">
-        <v>20</v>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>gpt-4</t>
-        </is>
-      </c>
-      <c r="H15" t="b">
-        <v>0</v>
-      </c>
-      <c r="I15" t="n">
-        <v>1</v>
-      </c>
-      <c r="J15" t="n">
-        <v>0.7</v>
-      </c>
-      <c r="K15" t="n">
-        <v>1220</v>
-      </c>
-      <c r="L15" t="inlineStr">
-        <is>
-          <t>Let's test this and whether it is different to that.</t>
-        </is>
-      </c>
-      <c r="M15" s="2" t="n">
-        <v>45475.70830358651</v>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="n">
+        <v>45490.86229397799</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
+        <v>1230</v>
+      </c>
+      <c r="B16" t="n">
         <v>12</v>
       </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>category_size_bias</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
+      <c r="C16" t="n">
+        <v>30</v>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>category_size_bias</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
         <is>
           <t>test</t>
         </is>
       </c>
-      <c r="D16" t="inlineStr">
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>gpt-4o</t>
+        </is>
+      </c>
+      <c r="G16" t="b">
+        <v>0</v>
+      </c>
+      <c r="H16" t="n">
+        <v>1</v>
+      </c>
+      <c r="I16" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="J16" t="inlineStr">
         <is>
           <t>Let's test this and whether it is different to that.</t>
         </is>
       </c>
-      <c r="E16" t="inlineStr"/>
-      <c r="F16" t="n">
-        <v>30</v>
-      </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>gpt-4o</t>
-        </is>
-      </c>
-      <c r="H16" t="b">
-        <v>0</v>
-      </c>
-      <c r="I16" t="n">
-        <v>1</v>
-      </c>
-      <c r="J16" t="n">
-        <v>0.7</v>
-      </c>
-      <c r="K16" t="n">
-        <v>1230</v>
-      </c>
-      <c r="L16" t="inlineStr">
-        <is>
-          <t>Let's test this and whether it is different to that.</t>
-        </is>
-      </c>
-      <c r="M16" s="2" t="n">
-        <v>45475.70830358651</v>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="n">
+        <v>45490.86229397799</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
+        <v>1240</v>
+      </c>
+      <c r="B17" t="n">
         <v>12</v>
       </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>category_size_bias</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
+      <c r="C17" t="n">
+        <v>40</v>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>category_size_bias</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
         <is>
           <t>test</t>
         </is>
       </c>
-      <c r="D17" t="inlineStr">
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>llama2</t>
+        </is>
+      </c>
+      <c r="G17" t="b">
+        <v>1</v>
+      </c>
+      <c r="H17" t="n">
+        <v>1</v>
+      </c>
+      <c r="I17" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="J17" t="inlineStr">
         <is>
           <t>Let's test this and whether it is different to that.</t>
         </is>
       </c>
-      <c r="E17" t="inlineStr"/>
-      <c r="F17" t="n">
-        <v>40</v>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>llama2</t>
-        </is>
-      </c>
-      <c r="H17" t="b">
-        <v>1</v>
-      </c>
-      <c r="I17" t="n">
-        <v>1</v>
-      </c>
-      <c r="J17" t="n">
-        <v>0.7</v>
-      </c>
-      <c r="K17" t="n">
-        <v>1240</v>
-      </c>
-      <c r="L17" t="inlineStr">
-        <is>
-          <t>Let's test this and whether it is different to that.</t>
-        </is>
-      </c>
-      <c r="M17" s="2" t="n">
-        <v>45475.70830358651</v>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="n">
+        <v>45490.86229397799</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
+        <v>1250</v>
+      </c>
+      <c r="B18" t="n">
         <v>12</v>
       </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>category_size_bias</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
+      <c r="C18" t="n">
+        <v>50</v>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>category_size_bias</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
         <is>
           <t>test</t>
         </is>
       </c>
-      <c r="D18" t="inlineStr">
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>llama3</t>
+        </is>
+      </c>
+      <c r="G18" t="b">
+        <v>1</v>
+      </c>
+      <c r="H18" t="n">
+        <v>1</v>
+      </c>
+      <c r="I18" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="J18" t="inlineStr">
         <is>
           <t>Let's test this and whether it is different to that.</t>
         </is>
       </c>
-      <c r="E18" t="inlineStr"/>
-      <c r="F18" t="n">
-        <v>50</v>
-      </c>
-      <c r="G18" t="inlineStr">
-        <is>
-          <t>llama3</t>
-        </is>
-      </c>
-      <c r="H18" t="b">
-        <v>1</v>
-      </c>
-      <c r="I18" t="n">
-        <v>1</v>
-      </c>
-      <c r="J18" t="n">
-        <v>0.7</v>
-      </c>
-      <c r="K18" t="n">
-        <v>1250</v>
-      </c>
-      <c r="L18" t="inlineStr">
-        <is>
-          <t>Let's test this and whether it is different to that.</t>
-        </is>
-      </c>
-      <c r="M18" s="2" t="n">
-        <v>45475.70830358651</v>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="n">
+        <v>45490.86229397799</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
+        <v>1260</v>
+      </c>
+      <c r="B19" t="n">
         <v>12</v>
       </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>category_size_bias</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
+      <c r="C19" t="n">
+        <v>60</v>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>category_size_bias</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
         <is>
           <t>test</t>
         </is>
       </c>
-      <c r="D19" t="inlineStr">
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>gemma2</t>
+        </is>
+      </c>
+      <c r="G19" t="b">
+        <v>1</v>
+      </c>
+      <c r="H19" t="n">
+        <v>1</v>
+      </c>
+      <c r="I19" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="J19" t="inlineStr">
         <is>
           <t>Let's test this and whether it is different to that.</t>
         </is>
       </c>
-      <c r="E19" t="inlineStr"/>
-      <c r="F19" t="n">
-        <v>60</v>
-      </c>
-      <c r="G19" t="inlineStr">
-        <is>
-          <t>gemma2</t>
-        </is>
-      </c>
-      <c r="H19" t="b">
-        <v>1</v>
-      </c>
-      <c r="I19" t="n">
-        <v>1</v>
-      </c>
-      <c r="J19" t="n">
-        <v>0.7</v>
-      </c>
-      <c r="K19" t="n">
-        <v>1260</v>
-      </c>
-      <c r="L19" t="inlineStr">
-        <is>
-          <t>Let's test this and whether it is different to that.</t>
-        </is>
-      </c>
-      <c r="M19" s="2" t="n">
-        <v>45475.70830358651</v>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="L19" s="2" t="n">
+        <v>45490.86229397799</v>
       </c>
     </row>
   </sheetData>
